--- a/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Habitat-trans_dic.xlsx
@@ -711,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00323109334531289</v>
+        <v>0.003156572915722859</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001959885889572494</v>
+        <v>0.001959180095793289</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00465347389292211</v>
+        <v>0.004420669553959328</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0008915762898961352</v>
+        <v>0.0008913215415004583</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.005390310481110607</v>
+        <v>0.005180825395633666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0008527615939105261</v>
+        <v>0.0008479132258642273</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001462762060624888</v>
+        <v>0.001588579918400687</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01318036798576745</v>
+        <v>0.01158052130119309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02167463384121579</v>
+        <v>0.01863870200964738</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008768685668776187</v>
+        <v>0.008710741528398886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.017487547670698</v>
+        <v>0.01583812546346389</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01241352817894554</v>
+        <v>0.01493643281095042</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02405834068209451</v>
+        <v>0.02234914826927214</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01233041001383801</v>
+        <v>0.01209654566034209</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.004995563566471031</v>
+        <v>0.005161997623255135</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.007499226503325458</v>
+        <v>0.007606425177574861</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0176706471547647</v>
+        <v>0.01675414062599519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0073839919226064</v>
+        <v>0.00849390875683083</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.008448093734994623</v>
+        <v>0.008636435294675757</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.001410898486106358</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0005497329930005093</v>
+        <v>0.0005497329930005094</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.002902480528078665</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001175820847339152</v>
+        <v>0.001181200367090542</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0004485752080454759</v>
+        <v>0.000449645600339233</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0006138460264412506</v>
+        <v>0.0006135240813062523</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0017379914874807</v>
+        <v>0.001725047076704157</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0002963209480443469</v>
+        <v>0.0004130527499165055</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007734558289681144</v>
+        <v>0.006494376356224339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01603101918716213</v>
+        <v>0.01720495105154358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007009332099625192</v>
+        <v>0.007870745966736866</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.002571602165044833</v>
+        <v>0.002847002923888936</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0102055807881497</v>
+        <v>0.009263260397609349</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01079791104697821</v>
+        <v>0.01073965006450879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007760891795391895</v>
+        <v>0.007050253830770186</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.005446184024930136</v>
+        <v>0.005246230472280699</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.006251444629155851</v>
+        <v>0.00610403177676449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.00951677171604179</v>
+        <v>0.009514976012298337</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.004861528582195468</v>
+        <v>0.004962716123849019</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.003020610735301464</v>
+        <v>0.003266379913851938</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.004471762934342795</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.008531029834053898</v>
+        <v>0.0085310298340539</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.005089444333146765</v>
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001732291959103405</v>
+        <v>0.001706416559520209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003281379779271355</v>
+        <v>0.003305943966800911</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004833516633446407</v>
+        <v>0.004245312885258734</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001368244660900595</v>
+        <v>0.001386963093279324</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004046008095975297</v>
+        <v>0.003984772103396129</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001707481059324994</v>
+        <v>0.002248742795581897</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00154018511455134</v>
+        <v>0.001528367191902903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0009081647407799918</v>
+        <v>0.0009040141185610761</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0056273792935318</v>
+        <v>0.005511437647968601</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01419296896448482</v>
+        <v>0.01415797395921923</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02641529755782964</v>
+        <v>0.02442488462505505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.00924755662013123</v>
+        <v>0.009435139792818585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03078693486230951</v>
+        <v>0.02887330922421268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01446688995208599</v>
+        <v>0.01350776226792065</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.01421310221280563</v>
+        <v>0.01550823763056746</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01723374933071813</v>
+        <v>0.01672233590353744</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01038311632289628</v>
+        <v>0.01070576526641408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01009954202584462</v>
+        <v>0.01126339127738903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.008712424895409323</v>
+        <v>0.01005515264306928</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0203075596160627</v>
+        <v>0.01917450584377029</v>
       </c>
     </row>
     <row r="13">
@@ -1112,38 +1112,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001254213322505987</v>
+        <v>0.001272688200567892</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001163807891592231</v>
+        <v>0.001157828736573156</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001172969073448994</v>
+        <v>0.001054015483627654</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004097790540758813</v>
+        <v>0.004488255494092914</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.004225409107013231</v>
+        <v>0.004124630123028284</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.002517966972652167</v>
+        <v>0.002797836000411279</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003711982087568624</v>
+        <v>0.003308646687609961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003310114173448768</v>
+        <v>0.003359210143805537</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.002378284479070818</v>
+        <v>0.002631493887771336</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01268669458467216</v>
+        <v>0.01146065173863761</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009468393242909288</v>
+        <v>0.009589997650916839</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007051450872051673</v>
+        <v>0.007296342414060915</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.009313060613206942</v>
+        <v>0.00946746390134119</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01912448474273701</v>
+        <v>0.01909473020591195</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01770751854650654</v>
+        <v>0.01703956492888931</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.01159398858227974</v>
+        <v>0.01231148113122447</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01253311458102861</v>
+        <v>0.01270496023847297</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01046587540582814</v>
+        <v>0.01131900239390066</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.003594873387715538</v>
+        <v>0.0037559833002656</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.008223832116574393</v>
+        <v>0.009023517218263222</v>
       </c>
     </row>
     <row r="16">
@@ -1233,7 +1233,7 @@
         <v>0.001816551961293764</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.004850742028074525</v>
+        <v>0.004850742028074526</v>
       </c>
     </row>
     <row r="17">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001522666740917682</v>
+        <v>0.001555144074871678</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003550424457600065</v>
+        <v>0.003726623466314981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0003892274479771822</v>
+        <v>0.0003831109980698857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002877568250389033</v>
+        <v>0.002757043780622909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002917054095926872</v>
+        <v>0.002988509898934472</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003784531199857505</v>
+        <v>0.003760614952224745</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.000757160941850711</v>
+        <v>0.0007422652981394735</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.002790997405518672</v>
+        <v>0.002783180128585291</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002929116132979147</v>
+        <v>0.002846355795744142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004279168971235351</v>
+        <v>0.004306016745877779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0008414931220392887</v>
+        <v>0.000808745911141269</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.003253919495340211</v>
+        <v>0.003303457776330519</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.006451643546996712</v>
+        <v>0.006112186262954511</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01036576712801906</v>
+        <v>0.0109859338722544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.00352769549878764</v>
+        <v>0.003689928347407024</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.009365399669804063</v>
+        <v>0.008754947019978775</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008704299787514684</v>
+        <v>0.00923025082272794</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.009382687795343438</v>
+        <v>0.009513668871861213</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.004857899004339274</v>
+        <v>0.004717896762286194</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.006728014165048121</v>
+        <v>0.006898478851178653</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.006593956217033763</v>
+        <v>0.006602644460008579</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.008553537528164113</v>
+        <v>0.00851293572534419</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.003314870199365607</v>
+        <v>0.003299546045678222</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0069609354615779</v>
+        <v>0.00695911107197885</v>
       </c>
     </row>
     <row r="19">
@@ -1595,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1958</v>
+        <v>1913</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2954</v>
+        <v>2806</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>906</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6688</v>
+        <v>6428</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1998</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="7">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6298</v>
+        <v>5534</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13134</v>
+        <v>11294</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4603</v>
+        <v>4573</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11534</v>
+        <v>10446</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6680</v>
+        <v>8037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15271</v>
+        <v>14186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6712</v>
+        <v>6585</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3528</v>
+        <v>3645</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7619</v>
+        <v>7728</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21924</v>
+        <v>20787</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7896</v>
+        <v>9083</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11537</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="8">
@@ -1787,25 +1787,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3069</v>
+        <v>3046</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>612</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5585</v>
+        <v>4690</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13899</v>
+        <v>14917</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5722</v>
+        <v>6425</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>2613</v>
+        <v>2893</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8208</v>
+        <v>7450</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9705</v>
+        <v>9653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6724</v>
+        <v>6108</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5706</v>
+        <v>5497</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9542</v>
+        <v>9317</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16805</v>
+        <v>16802</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>8181</v>
+        <v>8351</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6234</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="12">
@@ -1952,38 +1952,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2087</v>
+        <v>2103</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3741</v>
+        <v>3286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3218</v>
+        <v>3169</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1929</v>
+        <v>2540</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8831</v>
+        <v>8649</v>
       </c>
     </row>
     <row r="15">
@@ -1994,38 +1994,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7736</v>
+        <v>7717</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16801</v>
+        <v>15535</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5089</v>
+        <v>5193</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23829</v>
+        <v>22348</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8457</v>
+        <v>7897</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>8240</v>
+        <v>8991</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13707</v>
+        <v>13300</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11730</v>
+        <v>12094</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13266</v>
+        <v>14795</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9846</v>
+        <v>11363</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>31870</v>
+        <v>30092</v>
       </c>
     </row>
     <row r="16">
@@ -2128,38 +2128,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1112</v>
+        <v>999</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3336</v>
+        <v>3653</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3939</v>
+        <v>3845</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>2710</v>
+        <v>3011</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5656</v>
+        <v>5041</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5753</v>
+        <v>5838</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4814</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="19">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9004</v>
+        <v>8133</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7628</v>
+        <v>7726</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5448</v>
+        <v>5637</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8828</v>
+        <v>8975</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15567</v>
+        <v>15543</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16509</v>
+        <v>15886</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>12477</v>
+        <v>13249</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>19097</v>
+        <v>19358</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18190</v>
+        <v>19672</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5930</v>
+        <v>6195</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16646</v>
+        <v>18265</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3738</v>
+        <v>3817</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10348</v>
+        <v>10862</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9777</v>
+        <v>9368</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7995</v>
+        <v>8191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11896</v>
+        <v>11821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2171</v>
+        <v>2128</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10119</v>
+        <v>10090</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15219</v>
+        <v>14789</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25923</v>
+        <v>26086</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4655</v>
+        <v>4474</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>22853</v>
+        <v>23201</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15837</v>
+        <v>15004</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>30213</v>
+        <v>32020</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9399</v>
+        <v>9831</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31821</v>
+        <v>29746</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23858</v>
+        <v>25300</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29493</v>
+        <v>29905</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13929</v>
+        <v>13528</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24392</v>
+        <v>25010</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>34260</v>
+        <v>34305</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>51818</v>
+        <v>51572</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>18337</v>
+        <v>18252</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>48888</v>
+        <v>48875</v>
       </c>
     </row>
     <row r="24">
